--- a/data/Table S2.xlsx
+++ b/data/Table S2.xlsx
@@ -21,12 +21,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="51">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
   <si>
-    <t xml:space="preserve">Ion Mode</t>
+    <t xml:space="preserve">LipidCategoryOrClass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IonMode</t>
   </si>
   <si>
     <t xml:space="preserve">Nominal mass</t>
@@ -38,7 +41,7 @@
     <t xml:space="preserve">Mass 1ppm</t>
   </si>
   <si>
-    <t xml:space="preserve">Fragment Mass 5ppm</t>
+    <t xml:space="preserve">Fragment mass 5ppm</t>
   </si>
   <si>
     <t xml:space="preserve">Chromatography (RT)</t>
@@ -119,6 +122,9 @@
     <t xml:space="preserve">Cer 18:1;O2/16:0</t>
   </si>
   <si>
+    <t xml:space="preserve">SP</t>
+  </si>
+  <si>
     <t xml:space="preserve">+</t>
   </si>
   <si>
@@ -140,24 +146,24 @@
     <t xml:space="preserve">PI 18:1/18:1</t>
   </si>
   <si>
+    <t xml:space="preserve">PL</t>
+  </si>
+  <si>
     <t xml:space="preserve">PC 18:2_24:6</t>
   </si>
   <si>
     <t xml:space="preserve">Lipid Feature m/z 752.56</t>
   </si>
   <si>
+    <t xml:space="preserve">Unknown</t>
+  </si>
+  <si>
     <t xml:space="preserve">Feature</t>
   </si>
   <si>
     <t xml:space="preserve">Value</t>
   </si>
   <si>
-    <t xml:space="preserve">Chromatography</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fragment mass 5ppm</t>
-  </si>
-  <si>
     <t xml:space="preserve">281,248</t>
   </si>
   <si>
@@ -168,9 +174,6 @@
   </si>
   <si>
     <t xml:space="preserve">502,4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lipid Feature    m/z 752.56</t>
   </si>
 </sst>
 </file>
@@ -186,6 +189,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -258,7 +262,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -271,8 +275,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -281,6 +289,14 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -300,21 +316,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AE8"/>
+  <dimension ref="A1:AF8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.82"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.81"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="21.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="18.58"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="9" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.81"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="21.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="18.58"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -390,7 +406,7 @@
       <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="Z1" s="2" t="s">
@@ -411,162 +427,186 @@
       <c r="AE1" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="AF1" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="2" t="n">
         <v>538.5</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="1" t="n">
+      <c r="H2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="1" t="n">
         <v>264.3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="2" t="n">
         <v>564.5</v>
       </c>
-      <c r="I3" s="2" t="n">
+      <c r="J3" s="2" t="n">
         <v>264.3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="2" t="n">
         <v>622.6</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" s="1" t="n">
+      <c r="K4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="1" t="n">
         <v>622.5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="n">
         <v>706.638</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="2" t="n">
+      <c r="H5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="2" t="n">
         <v>263.317</v>
       </c>
-      <c r="M5" s="2" t="n">
+      <c r="N5" s="2" t="n">
         <v>379.435</v>
       </c>
-      <c r="N5" s="2" t="n">
+      <c r="O5" s="2" t="n">
         <v>361.459</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="n">
         <v>861.55</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="2" t="n">
         <v>241.011</v>
       </c>
-      <c r="J6" s="2" t="n">
+      <c r="K6" s="2" t="n">
         <v>297.038</v>
       </c>
-      <c r="M6" s="2" t="n">
+      <c r="N6" s="2" t="n">
         <v>281.248</v>
       </c>
-      <c r="N6" s="2" t="n">
+      <c r="O6" s="2" t="n">
         <v>417.241</v>
       </c>
-      <c r="Q6" s="2" t="n">
+      <c r="R6" s="2" t="n">
         <v>281.248</v>
       </c>
-      <c r="R6" s="2" t="n">
+      <c r="S6" s="2" t="n">
         <v>417.241</v>
       </c>
-      <c r="Y6" s="1" t="s">
-        <v>33</v>
+      <c r="Z6" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="2" t="n">
         <v>858.599</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="2" t="n">
         <v>184.073</v>
       </c>
-      <c r="J7" s="2" t="n">
+      <c r="K7" s="2" t="n">
         <v>799.5</v>
       </c>
-      <c r="M7" s="2" t="n">
+      <c r="N7" s="2" t="n">
         <v>520.35</v>
       </c>
-      <c r="N7" s="2" t="n">
+      <c r="O7" s="2" t="n">
         <v>502.4</v>
       </c>
-      <c r="Q7" s="2" t="n">
+      <c r="R7" s="2" t="n">
         <v>578.3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="2" t="n">
         <v>752.5593</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>33</v>
+      <c r="H8" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -585,17 +625,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.34"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -606,467 +646,567 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="n">
         <v>538.5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="C3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="n">
         <v>264.3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2"/>
-      <c r="B5" s="1"/>
+      <c r="B5" s="2"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="2"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1" t="n">
         <v>564.5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1" t="n">
         <v>264.3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1" t="n">
         <v>622.6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="1" t="n">
         <v>622.5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2"/>
-      <c r="B11" s="1"/>
+      <c r="B11" s="2"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2" t="n">
         <v>706.638</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="2" t="n">
         <v>263.317</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="2" t="n">
         <v>379.435</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="2" t="n">
         <v>361.459</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2"/>
-      <c r="B17" s="1"/>
+      <c r="B17" s="2"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="2"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="2" t="n">
         <v>861.55</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="5" t="n">
         <v>241.011</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="6" t="n">
         <v>297.038</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>33</v>
+        <v>40</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="2" t="n">
         <v>858.599</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="2" t="n">
         <v>184.073</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="2" t="n">
         <v>799.5</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="1" t="n">
         <v>578.3</v>
       </c>
     </row>
@@ -1074,83 +1214,75 @@
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="1"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="2" t="n">
         <v>752.5593</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D40" s="8"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="1"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="1"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="1"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="1"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="1"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
